--- a/05_Test/UATTestRecord_BCD1-0117_BCDCarpentryProject.xlsx
+++ b/05_Test/UATTestRecord_BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>NEW</t>
   </si>
@@ -137,16 +137,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. The title has typo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Typo on "ATPA signed on staff size"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIXER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The title is wrong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIX DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tao Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/5/2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nicole Moloney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16/5/2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21/5/2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tao Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/5/2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damian Tait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1.When absent, show 'Y' else keep blank
-2.change the column name:day1-&gt;1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. The title has typo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Typo on "ATPA signed on staff size"</t>
+2.change the column name:day1-&gt;1
+3.show the employee's name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22/5/2017</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,8 +265,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -240,11 +301,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,14 +331,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -584,9 +661,11 @@
     <col min="2" max="2" width="18.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="87.375" customWidth="1"/>
+    <col min="5" max="5" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
@@ -602,8 +681,14 @@
       <c r="E1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -611,8 +696,10 @@
       <c r="C2" s="6"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -620,9 +707,11 @@
       <c r="C3" s="6"/>
       <c r="D3" s="5"/>
       <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -631,60 +720,80 @@
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="12"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="12"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="8"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:5" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="A8" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="6"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="8"/>
+      <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="12"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="7"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -693,42 +802,54 @@
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="12"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="7"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="F11" s="10"/>
+      <c r="G11" s="11"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E12" s="7"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="8"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="12"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="11"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -737,20 +858,32 @@
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="7"/>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="8"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="12"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="C15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="12" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -759,18 +892,22 @@
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="12"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="F17" s="10"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="12" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -779,70 +916,110 @@
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="12"/>
       <c r="B19" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="F19" s="10"/>
+      <c r="G19" s="11"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="12" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8"/>
+      <c r="C20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="12"/>
       <c r="B21" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8"/>
+        <v>31</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="12"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="7"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="6"/>
+      <c r="C23" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="D23" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8"/>
+        <v>32</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="12"/>
       <c r="B24" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
         <v>15</v>
       </c>
@@ -852,9 +1029,11 @@
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
+      <c r="F25" s="10"/>
+      <c r="G25" s="11"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -863,18 +1042,22 @@
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="13"/>
       <c r="B27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -883,18 +1066,22 @@
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="13"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
+      <c r="F29" s="10"/>
+      <c r="G29" s="11"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -903,18 +1090,22 @@
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="11"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A31" s="13"/>
       <c r="B31" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="5"/>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="F31" s="10"/>
+      <c r="G31" s="11"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A32" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -923,17 +1114,21 @@
       <c r="C32" s="6"/>
       <c r="D32" s="5"/>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="8"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="11"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="12"/>
       <c r="B33" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C33" s="6"/>
       <c r="D33" s="5"/>
       <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F33" s="10"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
         <v>17</v>
       </c>
@@ -943,6 +1138,8 @@
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="7"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="13">

--- a/05_Test/UATTestRecord_BCD1-0117_BCDCarpentryProject.xlsx
+++ b/05_Test/UATTestRecord_BCD1-0117_BCDCarpentryProject.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="58">
   <si>
     <t>NEW</t>
   </si>
@@ -112,18 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Can export only one employee's information.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.The date getting the certification and its expiry date should be stored</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.Can query according to certification's category(use checkbox)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. The title has typo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -225,45 +213,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.Add new column:Preferred name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.Delete clolumn:Country</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.One employee may have several driver licenses</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.Add new column:GST# and GST exempt flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.Add new column:Site Safe Card type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.Format control:IRDNumber:000-000-000 Account Number:00-0000-0000000-000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>25/5/2012</t>
-  </si>
-  <si>
     <t>25/5/2013</t>
   </si>
   <si>
-    <t>25/5/2014</t>
-  </si>
-  <si>
-    <t>25/5/2015</t>
-  </si>
-  <si>
-    <t>25/5/2016</t>
-  </si>
-  <si>
     <t>PROBLEM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -277,10 +237,6 @@
   </si>
   <si>
     <t>Note</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Be fixed in next iteration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,6 +420,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -479,7 +436,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -786,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,22 +769,22 @@
         <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
@@ -842,7 +798,7 @@
       <c r="F2" s="5"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
-      <c r="I2" s="19"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
@@ -855,144 +811,104 @@
       <c r="F3" s="5"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="19"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="4" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E5" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="5"/>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="5"/>
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="5"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="I9" s="19"/>
+        <v>56</v>
+      </c>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="10" t="s">
         <v>1</v>
       </c>
@@ -1002,33 +918,23 @@
       <c r="F10" s="5"/>
       <c r="G10" s="8"/>
       <c r="H10" s="9"/>
-      <c r="I10" s="19"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="15"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="10" t="s">
         <v>3</v>
       </c>
@@ -1038,60 +944,60 @@
       <c r="F12" s="5"/>
       <c r="G12" s="8"/>
       <c r="H12" s="9"/>
-      <c r="I12" s="19"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="17"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" s="19"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="16"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E14" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="19"/>
+        <v>31</v>
+      </c>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="15"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="10" t="s">
         <v>2</v>
       </c>
@@ -1101,10 +1007,10 @@
       <c r="F15" s="5"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
-      <c r="I15" s="19"/>
+      <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="10" t="s">
@@ -1116,10 +1022,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="8"/>
       <c r="H16" s="9"/>
-      <c r="I16" s="19"/>
+      <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="10" t="s">
         <v>2</v>
       </c>
@@ -1129,58 +1035,38 @@
       <c r="F17" s="5"/>
       <c r="G17" s="8"/>
       <c r="H17" s="9"/>
-      <c r="I17" s="19"/>
+      <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="5"/>
       <c r="G18" s="8"/>
       <c r="H18" s="9"/>
-      <c r="I18" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="17"/>
+      <c r="A19" s="18"/>
       <c r="B19" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="5"/>
       <c r="G19" s="8"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="19" t="s">
-        <v>69</v>
-      </c>
+      <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="17" t="s">
+      <c r="A20" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B20" s="10" t="s">
@@ -1192,81 +1078,81 @@
       <c r="F20" s="5"/>
       <c r="G20" s="8"/>
       <c r="H20" s="9"/>
-      <c r="I20" s="19"/>
+      <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="17"/>
-      <c r="B21" s="14" t="s">
+      <c r="A21" s="18"/>
+      <c r="B21" s="15" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" s="14"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="14"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="5" t="s">
+      <c r="F23" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="H23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="19"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="17"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="19"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="17"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="14"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="17" t="s">
+      <c r="A24" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="10" t="s">
@@ -1278,10 +1164,10 @@
       <c r="F24" s="5"/>
       <c r="G24" s="8"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="19"/>
+      <c r="I24" s="14"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="17"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
         <v>2</v>
       </c>
@@ -1291,10 +1177,10 @@
       <c r="F25" s="5"/>
       <c r="G25" s="8"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="19"/>
+      <c r="I25" s="14"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="10" t="s">
@@ -1306,10 +1192,10 @@
       <c r="F26" s="5"/>
       <c r="G26" s="8"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="19"/>
+      <c r="I26" s="14"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="17"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="10" t="s">
         <v>2</v>
       </c>
@@ -1319,62 +1205,62 @@
       <c r="F27" s="5"/>
       <c r="G27" s="8"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="19"/>
+      <c r="I27" s="14"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="17" t="s">
+      <c r="A28" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I28" s="19"/>
+        <v>36</v>
+      </c>
+      <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="17"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="10" t="s">
         <v>2</v>
       </c>
@@ -1384,37 +1270,37 @@
       <c r="F30" s="5"/>
       <c r="G30" s="8"/>
       <c r="H30" s="9"/>
-      <c r="I30" s="19"/>
+      <c r="I30" s="14"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="17" t="s">
+      <c r="A31" s="18" t="s">
         <v>13</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="14"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="17"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="10" t="s">
         <v>2</v>
       </c>
@@ -1424,7 +1310,7 @@
       <c r="F32" s="5"/>
       <c r="G32" s="8"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="19"/>
+      <c r="I32" s="14"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
@@ -1439,10 +1325,10 @@
       <c r="F33" s="5"/>
       <c r="G33" s="8"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="19"/>
+      <c r="I33" s="14"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B34" s="10" t="s">
@@ -1454,10 +1340,10 @@
       <c r="F34" s="5"/>
       <c r="G34" s="8"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="19"/>
+      <c r="I34" s="14"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="18"/>
+      <c r="A35" s="19"/>
       <c r="B35" s="10" t="s">
         <v>2</v>
       </c>
@@ -1467,10 +1353,10 @@
       <c r="F35" s="5"/>
       <c r="G35" s="8"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="19"/>
+      <c r="I35" s="14"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B36" s="10" t="s">
@@ -1482,10 +1368,10 @@
       <c r="F36" s="5"/>
       <c r="G36" s="8"/>
       <c r="H36" s="9"/>
-      <c r="I36" s="19"/>
+      <c r="I36" s="14"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="18"/>
+      <c r="A37" s="19"/>
       <c r="B37" s="10" t="s">
         <v>2</v>
       </c>
@@ -1495,10 +1381,10 @@
       <c r="F37" s="5"/>
       <c r="G37" s="8"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="14"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="10" t="s">
@@ -1510,10 +1396,10 @@
       <c r="F38" s="5"/>
       <c r="G38" s="8"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="14"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="18"/>
+      <c r="A39" s="19"/>
       <c r="B39" s="10" t="s">
         <v>2</v>
       </c>
@@ -1523,10 +1409,10 @@
       <c r="F39" s="5"/>
       <c r="G39" s="8"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="14"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B40" s="10" t="s">
@@ -1538,10 +1424,10 @@
       <c r="F40" s="5"/>
       <c r="G40" s="8"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="19"/>
+      <c r="I40" s="14"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="17"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="10" t="s">
         <v>2</v>
       </c>
@@ -1551,7 +1437,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="19"/>
+      <c r="I41" s="14"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
@@ -1566,7 +1452,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="8"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="19"/>
+      <c r="I42" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="16">
